--- a/em_rad_stanag2021.xlsx
+++ b/em_rad_stanag2021.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\Pythonecke\BB_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E0A0BA-BFFF-4056-AFC8-1219E6256A02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705671B2-8C7E-43FC-B6C5-516B1F6FD668}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="15" windowWidth="18345" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,46 +36,46 @@
     <t>#</t>
   </si>
   <si>
-    <t>mlc4</t>
+    <t>MLC4</t>
   </si>
   <si>
-    <t>mlc8</t>
+    <t>MLC8</t>
   </si>
   <si>
-    <t>mlc12</t>
+    <t>MLC12</t>
   </si>
   <si>
-    <t>mlc16</t>
+    <t>MLC16</t>
   </si>
   <si>
-    <t>mlc20</t>
+    <t>MLC20</t>
   </si>
   <si>
-    <t>mlc24</t>
+    <t>MLC24</t>
   </si>
   <si>
-    <t>mlc30</t>
+    <t>MLC30</t>
   </si>
   <si>
-    <t>mlc40</t>
+    <t>MLC40</t>
   </si>
   <si>
-    <t>mlc50</t>
+    <t>MLC50</t>
   </si>
   <si>
-    <t>mlc60</t>
+    <t>MLC60</t>
   </si>
   <si>
-    <t>mlc70</t>
+    <t>MLC70</t>
   </si>
   <si>
-    <t>mlc80</t>
+    <t>MLC80</t>
   </si>
   <si>
-    <t>mlc90</t>
+    <t>MLC90</t>
   </si>
   <si>
-    <t>mlc100</t>
+    <t>MLC100</t>
   </si>
 </sst>
 </file>
@@ -85,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -387,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,49 +879,49 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>5.5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>6.32</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>12.24</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>17.809999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>22.88</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>29.89</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>35.17</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>38.700000000000003</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>45.71</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>52.77</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>59.49</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>69.400000000000006</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>79.31</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>89.22</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>95.85</v>
       </c>
     </row>
@@ -960,660 +973,904 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>7.12</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(B12+(B14-B12)/2)</f>
+        <v>6.875</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:O13" si="0">(C12+(C14-C12)/2)</f>
         <v>12.24</v>
       </c>
-      <c r="D13">
-        <v>19.28</v>
-      </c>
-      <c r="E13">
-        <v>24.76</v>
-      </c>
-      <c r="F13">
-        <v>32.380000000000003</v>
-      </c>
-      <c r="G13">
-        <v>38.18</v>
-      </c>
-      <c r="H13">
-        <v>42.17</v>
-      </c>
-      <c r="I13">
-        <v>48.19</v>
-      </c>
-      <c r="J13">
-        <v>55.63</v>
-      </c>
-      <c r="K13">
-        <v>63.65</v>
-      </c>
-      <c r="L13">
-        <v>74.25</v>
-      </c>
-      <c r="M13">
-        <v>84.85</v>
-      </c>
-      <c r="N13">
-        <v>95.46</v>
-      </c>
-      <c r="O13">
-        <v>103.39</v>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>18.625</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>24.055</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>31.450000000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>37.04</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>40.835000000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>47.43</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>54.75</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>62.370000000000005</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>72.759999999999991</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>83.144999999999996</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>93.539999999999992</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>101.07</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>7.48</v>
+        <v>7.12</v>
       </c>
       <c r="C14">
-        <v>13.01</v>
+        <v>12.24</v>
       </c>
       <c r="D14">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="E14">
-        <v>26.11</v>
+        <v>24.76</v>
       </c>
       <c r="F14">
-        <v>34.17</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="G14">
-        <v>40.36</v>
+        <v>38.18</v>
       </c>
       <c r="H14">
-        <v>44.69</v>
+        <v>42.17</v>
       </c>
       <c r="I14">
-        <v>50.44</v>
+        <v>48.19</v>
       </c>
       <c r="J14">
-        <v>58.2</v>
+        <v>55.63</v>
       </c>
       <c r="K14">
-        <v>66.400000000000006</v>
+        <v>63.65</v>
       </c>
       <c r="L14">
-        <v>77.7</v>
+        <v>74.25</v>
       </c>
       <c r="M14">
-        <v>88.8</v>
+        <v>84.85</v>
       </c>
       <c r="N14">
-        <v>99.89</v>
+        <v>95.46</v>
       </c>
       <c r="O14">
-        <v>108.32</v>
+        <v>103.39</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>7.76</v>
-      </c>
-      <c r="C15">
-        <v>13.77</v>
-      </c>
-      <c r="D15">
-        <v>21.42</v>
-      </c>
-      <c r="E15">
-        <v>27.17</v>
-      </c>
-      <c r="F15">
-        <v>35.56</v>
-      </c>
-      <c r="G15">
-        <v>42.06</v>
-      </c>
-      <c r="H15">
-        <v>46.64</v>
-      </c>
-      <c r="I15">
-        <v>52.98</v>
-      </c>
-      <c r="J15">
-        <v>61.12</v>
-      </c>
-      <c r="K15">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="L15">
-        <v>82.04</v>
-      </c>
-      <c r="M15">
-        <v>93.76</v>
-      </c>
-      <c r="N15">
-        <v>105.47</v>
-      </c>
-      <c r="O15">
-        <v>114.83</v>
+      <c r="A15" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B15" s="1">
+        <f>(B14+(B16-B14)/2)</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:O15" si="1">(C14+(C16-C14)/2)</f>
+        <v>12.625</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>19.880000000000003</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>25.435000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>33.275000000000006</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>39.269999999999996</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>43.43</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>49.314999999999998</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>56.915000000000006</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>65.025000000000006</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>75.974999999999994</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>86.824999999999989</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
+        <v>97.674999999999997</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>105.85499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>7.99</v>
+        <v>7.48</v>
       </c>
       <c r="C16">
-        <v>14.39</v>
+        <v>13.01</v>
       </c>
       <c r="D16">
-        <v>22.33</v>
+        <v>20.48</v>
       </c>
       <c r="E16">
-        <v>28.29</v>
+        <v>26.11</v>
       </c>
       <c r="F16">
-        <v>36.99</v>
+        <v>34.17</v>
       </c>
       <c r="G16">
-        <v>43.67</v>
+        <v>40.36</v>
       </c>
       <c r="H16">
-        <v>48.89</v>
+        <v>44.69</v>
       </c>
       <c r="I16">
-        <v>55.01</v>
+        <v>50.44</v>
       </c>
       <c r="J16">
-        <v>63.46</v>
+        <v>58.2</v>
       </c>
       <c r="K16">
-        <v>72.7</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="L16">
-        <v>85.51</v>
+        <v>77.7</v>
       </c>
       <c r="M16">
-        <v>97.73</v>
+        <v>88.8</v>
       </c>
       <c r="N16">
-        <v>109.94</v>
+        <v>99.89</v>
       </c>
       <c r="O16">
-        <v>120.04</v>
+        <v>108.32</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>8.18</v>
-      </c>
-      <c r="C17">
-        <v>14.9</v>
-      </c>
-      <c r="D17">
-        <v>23.33</v>
-      </c>
-      <c r="E17">
-        <v>29.45</v>
-      </c>
-      <c r="F17">
-        <v>38.47</v>
-      </c>
-      <c r="G17">
-        <v>45.35</v>
-      </c>
-      <c r="H17">
-        <v>51.29</v>
-      </c>
-      <c r="I17">
-        <v>56.81</v>
-      </c>
-      <c r="J17">
-        <v>66.89</v>
-      </c>
-      <c r="K17">
-        <v>75.81</v>
-      </c>
-      <c r="L17">
-        <v>88.35</v>
-      </c>
-      <c r="M17">
-        <v>100.98</v>
-      </c>
-      <c r="N17">
-        <v>113.6</v>
-      </c>
-      <c r="O17">
-        <v>124.29</v>
+      <c r="A17" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="B17" s="1">
+        <f>(B16+(B18-B16)/2)</f>
+        <v>7.62</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:O17" si="2">(C16+(C18-C16)/2)</f>
+        <v>13.39</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>20.950000000000003</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>26.64</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>34.865000000000002</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>41.21</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>45.664999999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>51.709999999999994</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>59.66</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>68.150000000000006</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>79.87</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="2"/>
+        <v>91.28</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>102.68</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
+        <v>111.57499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>8.33</v>
+        <v>7.76</v>
       </c>
       <c r="C18">
-        <v>15.32</v>
+        <v>13.77</v>
       </c>
       <c r="D18">
-        <v>24.16</v>
+        <v>21.42</v>
       </c>
       <c r="E18">
-        <v>30.42</v>
+        <v>27.17</v>
       </c>
       <c r="F18">
-        <v>39.700000000000003</v>
+        <v>35.56</v>
       </c>
       <c r="G18">
-        <v>46.76</v>
+        <v>42.06</v>
       </c>
       <c r="H18">
-        <v>53.3</v>
+        <v>46.64</v>
       </c>
       <c r="I18">
-        <v>60.78</v>
+        <v>52.98</v>
       </c>
       <c r="J18">
-        <v>72.03</v>
+        <v>61.12</v>
       </c>
       <c r="K18">
-        <v>81.25</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="L18">
-        <v>93.97</v>
+        <v>82.04</v>
       </c>
       <c r="M18">
-        <v>103.69</v>
+        <v>93.76</v>
       </c>
       <c r="N18">
-        <v>116.64</v>
+        <v>105.47</v>
       </c>
       <c r="O18">
-        <v>127.84</v>
+        <v>114.83</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="C19">
-        <v>15.67</v>
-      </c>
-      <c r="D19">
-        <v>24.87</v>
-      </c>
-      <c r="E19">
-        <v>31.24</v>
-      </c>
-      <c r="F19">
-        <v>40.75</v>
-      </c>
-      <c r="G19">
-        <v>47.95</v>
-      </c>
-      <c r="H19">
-        <v>55</v>
-      </c>
-      <c r="I19">
-        <v>64.14</v>
-      </c>
-      <c r="J19">
-        <v>76.39</v>
-      </c>
-      <c r="K19">
-        <v>86.91</v>
-      </c>
-      <c r="L19">
-        <v>100.47</v>
-      </c>
-      <c r="M19">
-        <v>105.98</v>
-      </c>
-      <c r="N19">
-        <v>119.22</v>
-      </c>
-      <c r="O19">
-        <v>130.85</v>
+      <c r="A19" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B19" s="1">
+        <f>(B18+(B20-B18)/2)</f>
+        <v>7.875</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:O19" si="3">(C18+(C20-C18)/2)</f>
+        <v>14.08</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>21.875</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>27.73</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>36.275000000000006</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>42.865000000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>47.765000000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>53.994999999999997</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
+        <v>62.29</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
+        <v>71.300000000000011</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="3"/>
+        <v>83.775000000000006</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="3"/>
+        <v>95.745000000000005</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="3"/>
+        <v>107.705</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="3"/>
+        <v>117.435</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>8.57</v>
+        <v>7.99</v>
       </c>
       <c r="C20">
-        <v>15.98</v>
+        <v>14.39</v>
       </c>
       <c r="D20">
-        <v>25.47</v>
+        <v>22.33</v>
       </c>
       <c r="E20">
-        <v>31.94</v>
+        <v>28.29</v>
       </c>
       <c r="F20">
-        <v>41.64</v>
+        <v>36.99</v>
       </c>
       <c r="G20">
-        <v>48.97</v>
+        <v>43.67</v>
       </c>
       <c r="H20">
-        <v>56.45</v>
+        <v>48.89</v>
       </c>
       <c r="I20">
-        <v>67.02</v>
+        <v>55.01</v>
       </c>
       <c r="J20">
-        <v>80.12</v>
+        <v>63.46</v>
       </c>
       <c r="K20">
-        <v>91.77</v>
+        <v>72.7</v>
       </c>
       <c r="L20">
-        <v>106.05</v>
+        <v>85.51</v>
       </c>
       <c r="M20">
-        <v>111.02</v>
+        <v>97.73</v>
       </c>
       <c r="N20">
-        <v>124.9</v>
+        <v>109.94</v>
       </c>
       <c r="O20">
-        <v>133.41999999999999</v>
+        <v>120.04</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>8.67</v>
+        <v>8.18</v>
       </c>
       <c r="C21">
-        <v>16.25</v>
+        <v>14.9</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>23.33</v>
       </c>
       <c r="E21">
-        <v>32.549999999999997</v>
+        <v>29.45</v>
       </c>
       <c r="F21">
-        <v>42.42</v>
+        <v>38.47</v>
       </c>
       <c r="G21">
-        <v>49.85</v>
+        <v>45.35</v>
       </c>
       <c r="H21">
-        <v>57.72</v>
+        <v>51.29</v>
       </c>
       <c r="I21">
-        <v>69.52</v>
+        <v>56.81</v>
       </c>
       <c r="J21">
-        <v>83.36</v>
+        <v>66.89</v>
       </c>
       <c r="K21">
-        <v>95.99</v>
+        <v>75.81</v>
       </c>
       <c r="L21">
-        <v>110.89</v>
+        <v>88.35</v>
       </c>
       <c r="M21">
-        <v>117.19</v>
+        <v>100.98</v>
       </c>
       <c r="N21">
-        <v>131.84</v>
+        <v>113.6</v>
       </c>
       <c r="O21">
-        <v>135.91999999999999</v>
+        <v>124.29</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>8.76</v>
+        <v>8.33</v>
       </c>
       <c r="C22">
-        <v>16.48</v>
+        <v>15.32</v>
       </c>
       <c r="D22">
-        <v>26.46</v>
+        <v>24.16</v>
       </c>
       <c r="E22">
-        <v>33.090000000000003</v>
+        <v>30.42</v>
       </c>
       <c r="F22">
-        <v>43.1</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="G22">
-        <v>50.63</v>
+        <v>46.76</v>
       </c>
       <c r="H22">
-        <v>58.83</v>
+        <v>53.3</v>
       </c>
       <c r="I22">
-        <v>71.7</v>
+        <v>60.78</v>
       </c>
       <c r="J22">
-        <v>86.2</v>
+        <v>72.03</v>
       </c>
       <c r="K22">
-        <v>99.69</v>
+        <v>81.25</v>
       </c>
       <c r="L22">
-        <v>115.13</v>
+        <v>93.97</v>
       </c>
       <c r="M22">
-        <v>122.59</v>
+        <v>103.69</v>
       </c>
       <c r="N22">
-        <v>137.91999999999999</v>
+        <v>116.64</v>
       </c>
       <c r="O22">
-        <v>143.30000000000001</v>
+        <v>127.84</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>8.83</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="C23">
-        <v>16.690000000000001</v>
+        <v>15.67</v>
       </c>
       <c r="D23">
-        <v>26.86</v>
+        <v>24.87</v>
       </c>
       <c r="E23">
-        <v>33.56</v>
+        <v>31.24</v>
       </c>
       <c r="F23">
-        <v>43.71</v>
+        <v>40.75</v>
       </c>
       <c r="G23">
-        <v>51.31</v>
+        <v>47.95</v>
       </c>
       <c r="H23">
-        <v>59.81</v>
+        <v>55</v>
       </c>
       <c r="I23">
-        <v>73.63</v>
+        <v>64.14</v>
       </c>
       <c r="J23">
-        <v>88.71</v>
+        <v>76.39</v>
       </c>
       <c r="K23">
-        <v>102.96</v>
+        <v>86.91</v>
       </c>
       <c r="L23">
-        <v>118.87</v>
+        <v>100.47</v>
       </c>
       <c r="M23">
-        <v>127.36</v>
+        <v>105.98</v>
       </c>
       <c r="N23">
-        <v>143.29</v>
+        <v>119.22</v>
       </c>
       <c r="O23">
-        <v>149.83000000000001</v>
+        <v>130.85</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>8.9</v>
+        <v>8.57</v>
       </c>
       <c r="C24">
-        <v>16.87</v>
+        <v>15.98</v>
       </c>
       <c r="D24">
-        <v>27.22</v>
+        <v>25.47</v>
       </c>
       <c r="E24">
-        <v>33.979999999999997</v>
+        <v>31.94</v>
       </c>
       <c r="F24">
-        <v>44.24</v>
+        <v>41.64</v>
       </c>
       <c r="G24">
-        <v>51.92</v>
+        <v>48.97</v>
       </c>
       <c r="H24">
-        <v>60.68</v>
+        <v>56.45</v>
       </c>
       <c r="I24">
-        <v>75.349999999999994</v>
+        <v>67.02</v>
       </c>
       <c r="J24">
-        <v>90.94</v>
+        <v>80.12</v>
       </c>
       <c r="K24">
-        <v>105.86</v>
+        <v>91.77</v>
       </c>
       <c r="L24">
-        <v>122.19</v>
+        <v>106.05</v>
       </c>
       <c r="M24">
-        <v>131.61000000000001</v>
+        <v>111.02</v>
       </c>
       <c r="N24">
-        <v>148.07</v>
+        <v>124.9</v>
       </c>
       <c r="O24">
-        <v>155.63999999999999</v>
+        <v>133.41999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>8.9600000000000009</v>
+        <v>8.67</v>
       </c>
       <c r="C25">
-        <v>17.04</v>
+        <v>16.25</v>
       </c>
       <c r="D25">
-        <v>27.55</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>34.36</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="F25">
-        <v>44.72</v>
+        <v>42.42</v>
       </c>
       <c r="G25">
-        <v>52.47</v>
+        <v>49.85</v>
       </c>
       <c r="H25">
-        <v>61.46</v>
+        <v>57.72</v>
       </c>
       <c r="I25">
-        <v>76.88</v>
+        <v>69.52</v>
       </c>
       <c r="J25">
-        <v>92.94</v>
+        <v>83.36</v>
       </c>
       <c r="K25">
-        <v>108.47</v>
+        <v>95.99</v>
       </c>
       <c r="L25">
-        <v>125.17</v>
+        <v>110.89</v>
       </c>
       <c r="M25">
-        <v>135.41999999999999</v>
+        <v>117.19</v>
       </c>
       <c r="N25">
-        <v>152.35</v>
+        <v>131.84</v>
       </c>
       <c r="O25">
-        <v>160.85</v>
+        <v>135.91999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>8.76</v>
+      </c>
+      <c r="C26">
+        <v>16.48</v>
+      </c>
+      <c r="D26">
+        <v>26.46</v>
+      </c>
+      <c r="E26">
+        <v>33.090000000000003</v>
+      </c>
+      <c r="F26">
+        <v>43.1</v>
+      </c>
+      <c r="G26">
+        <v>50.63</v>
+      </c>
+      <c r="H26">
+        <v>58.83</v>
+      </c>
+      <c r="I26">
+        <v>71.7</v>
+      </c>
+      <c r="J26">
+        <v>86.2</v>
+      </c>
+      <c r="K26">
+        <v>99.69</v>
+      </c>
+      <c r="L26">
+        <v>115.13</v>
+      </c>
+      <c r="M26">
+        <v>122.59</v>
+      </c>
+      <c r="N26">
+        <v>137.91999999999999</v>
+      </c>
+      <c r="O26">
+        <v>143.30000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>8.83</v>
+      </c>
+      <c r="C27">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="D27">
+        <v>26.86</v>
+      </c>
+      <c r="E27">
+        <v>33.56</v>
+      </c>
+      <c r="F27">
+        <v>43.71</v>
+      </c>
+      <c r="G27">
+        <v>51.31</v>
+      </c>
+      <c r="H27">
+        <v>59.81</v>
+      </c>
+      <c r="I27">
+        <v>73.63</v>
+      </c>
+      <c r="J27">
+        <v>88.71</v>
+      </c>
+      <c r="K27">
+        <v>102.96</v>
+      </c>
+      <c r="L27">
+        <v>118.87</v>
+      </c>
+      <c r="M27">
+        <v>127.36</v>
+      </c>
+      <c r="N27">
+        <v>143.29</v>
+      </c>
+      <c r="O27">
+        <v>149.83000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>8.9</v>
+      </c>
+      <c r="C28">
+        <v>16.87</v>
+      </c>
+      <c r="D28">
+        <v>27.22</v>
+      </c>
+      <c r="E28">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="F28">
+        <v>44.24</v>
+      </c>
+      <c r="G28">
+        <v>51.92</v>
+      </c>
+      <c r="H28">
+        <v>60.68</v>
+      </c>
+      <c r="I28">
+        <v>75.349999999999994</v>
+      </c>
+      <c r="J28">
+        <v>90.94</v>
+      </c>
+      <c r="K28">
+        <v>105.86</v>
+      </c>
+      <c r="L28">
+        <v>122.19</v>
+      </c>
+      <c r="M28">
+        <v>131.61000000000001</v>
+      </c>
+      <c r="N28">
+        <v>148.07</v>
+      </c>
+      <c r="O28">
+        <v>155.63999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="C29">
+        <v>17.04</v>
+      </c>
+      <c r="D29">
+        <v>27.55</v>
+      </c>
+      <c r="E29">
+        <v>34.36</v>
+      </c>
+      <c r="F29">
+        <v>44.72</v>
+      </c>
+      <c r="G29">
+        <v>52.47</v>
+      </c>
+      <c r="H29">
+        <v>61.46</v>
+      </c>
+      <c r="I29">
+        <v>76.88</v>
+      </c>
+      <c r="J29">
+        <v>92.94</v>
+      </c>
+      <c r="K29">
+        <v>108.47</v>
+      </c>
+      <c r="L29">
+        <v>125.17</v>
+      </c>
+      <c r="M29">
+        <v>135.41999999999999</v>
+      </c>
+      <c r="N29">
+        <v>152.35</v>
+      </c>
+      <c r="O29">
+        <v>160.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B30">
         <v>9.01</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <v>17.18</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>27.84</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>34.700000000000003</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <v>45.15</v>
       </c>
-      <c r="G26">
+      <c r="G30">
         <v>52.96</v>
       </c>
-      <c r="H26">
+      <c r="H30">
         <v>62.17</v>
       </c>
-      <c r="I26">
+      <c r="I30">
         <v>78.260000000000005</v>
       </c>
-      <c r="J26">
+      <c r="J30">
         <v>94.73</v>
       </c>
-      <c r="K26">
+      <c r="K30">
         <v>110.81</v>
       </c>
-      <c r="L26">
+      <c r="L30">
         <v>127.86</v>
       </c>
-      <c r="M26">
+      <c r="M30">
         <v>138.85</v>
       </c>
-      <c r="N26">
+      <c r="N30">
         <v>156.21</v>
       </c>
-      <c r="O26">
+      <c r="O30">
         <v>165.54</v>
       </c>
     </row>
